--- a/2_semester/DataBase/КР импорт данных/Authors.xlsx
+++ b/2_semester/DataBase/КР импорт данных/Authors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="7980" yWindow="330" windowWidth="6615" windowHeight="5625"/>
+    <workbookView xWindow="7560" yWindow="225" windowWidth="5580" windowHeight="5625"/>
   </bookViews>
   <sheets>
     <sheet name="Authors" sheetId="2" r:id="rId1"/>
@@ -373,7 +373,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -515,15 +515,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -578,7 +569,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -926,7 +917,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -934,10 +925,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1053,9 +1044,12 @@
       <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>41415</v>
       </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="C11" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
